--- a/biology/Biologie cellulaire et moléculaire/Récepteur_Eph/Récepteur_Eph.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_Eph/Récepteur_Eph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_Eph</t>
+          <t>Récepteur_Eph</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récepteurs à Eph sont une famille de protéines à type de récepteur à activité tyrosine kinase (RTK). Ses ligands sont des éphrines. Les récepteurs Eph et leurs ligands d'éphrine correspondants sont des protéines liées à la membrane qui nécessitent des interactions cellule-cellule directes pour l'activation des récepteurs Eph. la signalisation Eph/éphrine a été impliquée dans la régulation de nombreux processus essentiels au développement embryonnaire, y compris le guidage axonal[1], la formation des frontières tissulaires[2], la migration cellulaire ainsi que la segmentation[3]. De plus, il a été identifié que la signalisation Eph/éphrine joue un rôle essentiel dans le maintien de plusieurs processus à l'âge adulte, notamment la potentialisation à long terme[4], l'angiogenèse, la différenciation des cellules souches et le cancer[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs à Eph sont une famille de protéines à type de récepteur à activité tyrosine kinase (RTK). Ses ligands sont des éphrines. Les récepteurs Eph et leurs ligands d'éphrine correspondants sont des protéines liées à la membrane qui nécessitent des interactions cellule-cellule directes pour l'activation des récepteurs Eph. la signalisation Eph/éphrine a été impliquée dans la régulation de nombreux processus essentiels au développement embryonnaire, y compris le guidage axonal, la formation des frontières tissulaires, la migration cellulaire ainsi que la segmentation. De plus, il a été identifié que la signalisation Eph/éphrine joue un rôle essentiel dans le maintien de plusieurs processus à l'âge adulte, notamment la potentialisation à long terme, l'angiogenèse, la différenciation des cellules souches et le cancer.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_Eph</t>
+          <t>Récepteur_Eph</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils interviennent dans la morphogenèse et la plasticité cérébrale[6], l'inflammation et les maladies immunologiques[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils interviennent dans la morphogenèse et la plasticité cérébrale, l'inflammation et les maladies immunologiques.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_Eph</t>
+          <t>Récepteur_Eph</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ils sont classés en deux sous-groupes, A et B : 
 EPHA1, EPHA2, EPHA3, EPHA4, EPHA5, EPHA6, EPHA7, EPHA8, EPHA9, EPHA10 ;
